--- a/Result_df/2019-11-26 Results.xlsx
+++ b/Result_df/2019-11-26 Results.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -379,27 +379,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Gap</t>
+          <t>wait_tick</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Spk</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>buy_offset</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>cmo_enter</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>cmo_breakaway</t>
+          <t>over_tick</t>
         </is>
       </c>
     </row>
@@ -408,25 +393,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.005767261867387</v>
+        <v>1.155784119852045</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9790432410551949</v>
+        <v>0.9887811494026554</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.014</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>1.016</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-70</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
